--- a/COD/exercises/RetJPM.xlsx
+++ b/COD/exercises/RetJPM.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/perez-jose_lasallistas_org_mx/Documents/Riesgos Financieros/riskengine/COD/exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{C6842A3C-BDDA-40E5-8BFE-44A1CF8F76CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56ACA470-A214-4BFB-B6B0-203CDCF00686}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{C6842A3C-BDDA-40E5-8BFE-44A1CF8F76CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83FA81CA-2B62-453E-8BBB-C9AE69F786AF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0CA6AFF7-620D-45FD-BF69-9B6901F922CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$2014</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20237,6 +20240,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28698,7 +28705,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -42899,7 +42906,7 @@
       </c>
     </row>
     <row r="1776" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1776" vm="1775">
+      <c r="A1776" s="1" vm="1775">
         <v>45538</v>
       </c>
       <c r="B1776">
@@ -42907,7 +42914,7 @@
       </c>
     </row>
     <row r="1777" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1777" vm="1776">
+      <c r="A1777" s="1" vm="1776">
         <v>45539</v>
       </c>
       <c r="B1777">
@@ -42915,7 +42922,7 @@
       </c>
     </row>
     <row r="1778" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1778" vm="1777">
+      <c r="A1778" s="1" vm="1777">
         <v>45540</v>
       </c>
       <c r="B1778">
@@ -42923,7 +42930,7 @@
       </c>
     </row>
     <row r="1779" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1779" vm="1778">
+      <c r="A1779" s="1" vm="1778">
         <v>45541</v>
       </c>
       <c r="B1779">
@@ -42931,7 +42938,7 @@
       </c>
     </row>
     <row r="1780" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1780" vm="1779">
+      <c r="A1780" s="1" vm="1779">
         <v>45544</v>
       </c>
       <c r="B1780">
@@ -42939,7 +42946,7 @@
       </c>
     </row>
     <row r="1781" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1781" vm="1780">
+      <c r="A1781" s="1" vm="1780">
         <v>45545</v>
       </c>
       <c r="B1781">
@@ -42947,7 +42954,7 @@
       </c>
     </row>
     <row r="1782" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1782" vm="1781">
+      <c r="A1782" s="1" vm="1781">
         <v>45546</v>
       </c>
       <c r="B1782">
@@ -42955,7 +42962,7 @@
       </c>
     </row>
     <row r="1783" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1783" vm="1782">
+      <c r="A1783" s="1" vm="1782">
         <v>45547</v>
       </c>
       <c r="B1783">
@@ -42963,7 +42970,7 @@
       </c>
     </row>
     <row r="1784" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1784" vm="1783">
+      <c r="A1784" s="1" vm="1783">
         <v>45548</v>
       </c>
       <c r="B1784">
@@ -42971,7 +42978,7 @@
       </c>
     </row>
     <row r="1785" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1785" vm="1784">
+      <c r="A1785" s="1" vm="1784">
         <v>45552</v>
       </c>
       <c r="B1785">
@@ -42979,7 +42986,7 @@
       </c>
     </row>
     <row r="1786" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1786" vm="1785">
+      <c r="A1786" s="1" vm="1785">
         <v>45553</v>
       </c>
       <c r="B1786">
@@ -42987,7 +42994,7 @@
       </c>
     </row>
     <row r="1787" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1787" vm="1786">
+      <c r="A1787" s="1" vm="1786">
         <v>45554</v>
       </c>
       <c r="B1787">
@@ -42995,7 +43002,7 @@
       </c>
     </row>
     <row r="1788" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1788" vm="1787">
+      <c r="A1788" s="1" vm="1787">
         <v>45555</v>
       </c>
       <c r="B1788">
@@ -43003,7 +43010,7 @@
       </c>
     </row>
     <row r="1789" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1789" vm="1788">
+      <c r="A1789" s="1" vm="1788">
         <v>45558</v>
       </c>
       <c r="B1789">
@@ -43011,7 +43018,7 @@
       </c>
     </row>
     <row r="1790" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1790" vm="1789">
+      <c r="A1790" s="1" vm="1789">
         <v>45559</v>
       </c>
       <c r="B1790">
@@ -43019,7 +43026,7 @@
       </c>
     </row>
     <row r="1791" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1791" vm="1790">
+      <c r="A1791" s="1" vm="1790">
         <v>45560</v>
       </c>
       <c r="B1791">
@@ -43027,7 +43034,7 @@
       </c>
     </row>
     <row r="1792" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1792" vm="1791">
+      <c r="A1792" s="1" vm="1791">
         <v>45561</v>
       </c>
       <c r="B1792">
@@ -43035,7 +43042,7 @@
       </c>
     </row>
     <row r="1793" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1793" vm="1792">
+      <c r="A1793" s="1" vm="1792">
         <v>45562</v>
       </c>
       <c r="B1793">
@@ -43043,7 +43050,7 @@
       </c>
     </row>
     <row r="1794" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1794" vm="1793">
+      <c r="A1794" s="1" vm="1793">
         <v>45565</v>
       </c>
       <c r="B1794">
@@ -43051,7 +43058,7 @@
       </c>
     </row>
     <row r="1795" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1795" vm="1794">
+      <c r="A1795" s="1" vm="1794">
         <v>45567</v>
       </c>
       <c r="B1795">
@@ -43059,7 +43066,7 @@
       </c>
     </row>
     <row r="1796" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1796" vm="1795">
+      <c r="A1796" s="1" vm="1795">
         <v>45568</v>
       </c>
       <c r="B1796">
@@ -43067,7 +43074,7 @@
       </c>
     </row>
     <row r="1797" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1797" vm="1796">
+      <c r="A1797" s="1" vm="1796">
         <v>45569</v>
       </c>
       <c r="B1797">
@@ -43075,7 +43082,7 @@
       </c>
     </row>
     <row r="1798" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1798" vm="1797">
+      <c r="A1798" s="1" vm="1797">
         <v>45572</v>
       </c>
       <c r="B1798">
@@ -43083,7 +43090,7 @@
       </c>
     </row>
     <row r="1799" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1799" vm="1798">
+      <c r="A1799" s="1" vm="1798">
         <v>45573</v>
       </c>
       <c r="B1799">
@@ -43091,7 +43098,7 @@
       </c>
     </row>
     <row r="1800" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1800" vm="1799">
+      <c r="A1800" s="1" vm="1799">
         <v>45574</v>
       </c>
       <c r="B1800">
@@ -43099,7 +43106,7 @@
       </c>
     </row>
     <row r="1801" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1801" vm="1800">
+      <c r="A1801" s="1" vm="1800">
         <v>45575</v>
       </c>
       <c r="B1801">
@@ -43107,7 +43114,7 @@
       </c>
     </row>
     <row r="1802" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1802" vm="1801">
+      <c r="A1802" s="1" vm="1801">
         <v>45576</v>
       </c>
       <c r="B1802">
@@ -43115,7 +43122,7 @@
       </c>
     </row>
     <row r="1803" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1803" vm="1802">
+      <c r="A1803" s="1" vm="1802">
         <v>45579</v>
       </c>
       <c r="B1803">
@@ -43123,7 +43130,7 @@
       </c>
     </row>
     <row r="1804" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1804" vm="1803">
+      <c r="A1804" s="1" vm="1803">
         <v>45580</v>
       </c>
       <c r="B1804">
@@ -43131,7 +43138,7 @@
       </c>
     </row>
     <row r="1805" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1805" vm="1804">
+      <c r="A1805" s="1" vm="1804">
         <v>45581</v>
       </c>
       <c r="B1805">
@@ -43139,7 +43146,7 @@
       </c>
     </row>
     <row r="1806" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1806" vm="1805">
+      <c r="A1806" s="1" vm="1805">
         <v>45582</v>
       </c>
       <c r="B1806">
@@ -43147,7 +43154,7 @@
       </c>
     </row>
     <row r="1807" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1807" vm="1806">
+      <c r="A1807" s="1" vm="1806">
         <v>45583</v>
       </c>
       <c r="B1807">
@@ -43155,7 +43162,7 @@
       </c>
     </row>
     <row r="1808" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1808" vm="1807">
+      <c r="A1808" s="1" vm="1807">
         <v>45586</v>
       </c>
       <c r="B1808">
@@ -43163,7 +43170,7 @@
       </c>
     </row>
     <row r="1809" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1809" vm="1808">
+      <c r="A1809" s="1" vm="1808">
         <v>45587</v>
       </c>
       <c r="B1809">
@@ -43171,7 +43178,7 @@
       </c>
     </row>
     <row r="1810" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1810" vm="1809">
+      <c r="A1810" s="1" vm="1809">
         <v>45588</v>
       </c>
       <c r="B1810">
@@ -43179,7 +43186,7 @@
       </c>
     </row>
     <row r="1811" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1811" vm="1810">
+      <c r="A1811" s="1" vm="1810">
         <v>45589</v>
       </c>
       <c r="B1811">
@@ -43187,7 +43194,7 @@
       </c>
     </row>
     <row r="1812" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1812" vm="1811">
+      <c r="A1812" s="1" vm="1811">
         <v>45590</v>
       </c>
       <c r="B1812">
@@ -43195,7 +43202,7 @@
       </c>
     </row>
     <row r="1813" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1813" vm="1812">
+      <c r="A1813" s="1" vm="1812">
         <v>45593</v>
       </c>
       <c r="B1813">
@@ -43203,7 +43210,7 @@
       </c>
     </row>
     <row r="1814" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1814" vm="1813">
+      <c r="A1814" s="1" vm="1813">
         <v>45594</v>
       </c>
       <c r="B1814">
@@ -43211,7 +43218,7 @@
       </c>
     </row>
     <row r="1815" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1815" vm="1814">
+      <c r="A1815" s="1" vm="1814">
         <v>45595</v>
       </c>
       <c r="B1815">
@@ -43219,7 +43226,7 @@
       </c>
     </row>
     <row r="1816" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1816" vm="1815">
+      <c r="A1816" s="1" vm="1815">
         <v>45596</v>
       </c>
       <c r="B1816">
@@ -43227,7 +43234,7 @@
       </c>
     </row>
     <row r="1817" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1817" vm="1816">
+      <c r="A1817" s="1" vm="1816">
         <v>45597</v>
       </c>
       <c r="B1817">
@@ -43235,7 +43242,7 @@
       </c>
     </row>
     <row r="1818" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1818" vm="1817">
+      <c r="A1818" s="1" vm="1817">
         <v>45600</v>
       </c>
       <c r="B1818">
@@ -43243,7 +43250,7 @@
       </c>
     </row>
     <row r="1819" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1819" vm="1818">
+      <c r="A1819" s="1" vm="1818">
         <v>45601</v>
       </c>
       <c r="B1819">
@@ -43251,7 +43258,7 @@
       </c>
     </row>
     <row r="1820" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1820" vm="1819">
+      <c r="A1820" s="1" vm="1819">
         <v>45602</v>
       </c>
       <c r="B1820">
@@ -43259,7 +43266,7 @@
       </c>
     </row>
     <row r="1821" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1821" vm="1820">
+      <c r="A1821" s="1" vm="1820">
         <v>45603</v>
       </c>
       <c r="B1821">
@@ -43267,7 +43274,7 @@
       </c>
     </row>
     <row r="1822" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1822" vm="1821">
+      <c r="A1822" s="1" vm="1821">
         <v>45604</v>
       </c>
       <c r="B1822">
@@ -43275,7 +43282,7 @@
       </c>
     </row>
     <row r="1823" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1823" vm="1822">
+      <c r="A1823" s="1" vm="1822">
         <v>45607</v>
       </c>
       <c r="B1823">
@@ -43283,7 +43290,7 @@
       </c>
     </row>
     <row r="1824" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1824" vm="1823">
+      <c r="A1824" s="1" vm="1823">
         <v>45608</v>
       </c>
       <c r="B1824">
@@ -43291,7 +43298,7 @@
       </c>
     </row>
     <row r="1825" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1825" vm="1824">
+      <c r="A1825" s="1" vm="1824">
         <v>45609</v>
       </c>
       <c r="B1825">
@@ -43299,7 +43306,7 @@
       </c>
     </row>
     <row r="1826" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1826" vm="1825">
+      <c r="A1826" s="1" vm="1825">
         <v>45610</v>
       </c>
       <c r="B1826">
@@ -43307,7 +43314,7 @@
       </c>
     </row>
     <row r="1827" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1827" vm="1826">
+      <c r="A1827" s="1" vm="1826">
         <v>45611</v>
       </c>
       <c r="B1827">
@@ -43315,7 +43322,7 @@
       </c>
     </row>
     <row r="1828" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1828" vm="1827">
+      <c r="A1828" s="1" vm="1827">
         <v>45615</v>
       </c>
       <c r="B1828">
@@ -43323,7 +43330,7 @@
       </c>
     </row>
     <row r="1829" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1829" vm="1828">
+      <c r="A1829" s="1" vm="1828">
         <v>45616</v>
       </c>
       <c r="B1829">
@@ -43331,7 +43338,7 @@
       </c>
     </row>
     <row r="1830" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1830" vm="1829">
+      <c r="A1830" s="1" vm="1829">
         <v>45617</v>
       </c>
       <c r="B1830">
@@ -43339,7 +43346,7 @@
       </c>
     </row>
     <row r="1831" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1831" vm="1830">
+      <c r="A1831" s="1" vm="1830">
         <v>45618</v>
       </c>
       <c r="B1831">
@@ -43347,7 +43354,7 @@
       </c>
     </row>
     <row r="1832" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1832" vm="1831">
+      <c r="A1832" s="1" vm="1831">
         <v>45621</v>
       </c>
       <c r="B1832">
@@ -43355,7 +43362,7 @@
       </c>
     </row>
     <row r="1833" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1833" vm="1832">
+      <c r="A1833" s="1" vm="1832">
         <v>45622</v>
       </c>
       <c r="B1833">
@@ -43363,7 +43370,7 @@
       </c>
     </row>
     <row r="1834" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1834" vm="1833">
+      <c r="A1834" s="1" vm="1833">
         <v>45623</v>
       </c>
       <c r="B1834">
@@ -43371,7 +43378,7 @@
       </c>
     </row>
     <row r="1835" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1835" vm="1834">
+      <c r="A1835" s="1" vm="1834">
         <v>45624</v>
       </c>
       <c r="B1835">
@@ -43379,7 +43386,7 @@
       </c>
     </row>
     <row r="1836" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1836" vm="1835">
+      <c r="A1836" s="1" vm="1835">
         <v>45625</v>
       </c>
       <c r="B1836">
@@ -43387,7 +43394,7 @@
       </c>
     </row>
     <row r="1837" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1837" vm="1836">
+      <c r="A1837" s="1" vm="1836">
         <v>45628</v>
       </c>
       <c r="B1837">
@@ -43395,7 +43402,7 @@
       </c>
     </row>
     <row r="1838" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1838" vm="1837">
+      <c r="A1838" s="1" vm="1837">
         <v>45629</v>
       </c>
       <c r="B1838">
@@ -43403,7 +43410,7 @@
       </c>
     </row>
     <row r="1839" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1839" vm="1838">
+      <c r="A1839" s="1" vm="1838">
         <v>45630</v>
       </c>
       <c r="B1839">
@@ -43411,7 +43418,7 @@
       </c>
     </row>
     <row r="1840" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1840" vm="1839">
+      <c r="A1840" s="1" vm="1839">
         <v>45631</v>
       </c>
       <c r="B1840">
@@ -43419,7 +43426,7 @@
       </c>
     </row>
     <row r="1841" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1841" vm="1840">
+      <c r="A1841" s="1" vm="1840">
         <v>45632</v>
       </c>
       <c r="B1841">
@@ -43427,7 +43434,7 @@
       </c>
     </row>
     <row r="1842" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1842" vm="1841">
+      <c r="A1842" s="1" vm="1841">
         <v>45635</v>
       </c>
       <c r="B1842">
@@ -43435,7 +43442,7 @@
       </c>
     </row>
     <row r="1843" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1843" vm="1842">
+      <c r="A1843" s="1" vm="1842">
         <v>45636</v>
       </c>
       <c r="B1843">
@@ -43443,7 +43450,7 @@
       </c>
     </row>
     <row r="1844" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1844" vm="1843">
+      <c r="A1844" s="1" vm="1843">
         <v>45637</v>
       </c>
       <c r="B1844">
@@ -43451,7 +43458,7 @@
       </c>
     </row>
     <row r="1845" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1845" vm="1844">
+      <c r="A1845" s="1" vm="1844">
         <v>45639</v>
       </c>
       <c r="B1845">
@@ -43459,7 +43466,7 @@
       </c>
     </row>
     <row r="1846" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1846" vm="1845">
+      <c r="A1846" s="1" vm="1845">
         <v>45642</v>
       </c>
       <c r="B1846">
@@ -43467,7 +43474,7 @@
       </c>
     </row>
     <row r="1847" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1847" vm="1846">
+      <c r="A1847" s="1" vm="1846">
         <v>45643</v>
       </c>
       <c r="B1847">
@@ -43475,7 +43482,7 @@
       </c>
     </row>
     <row r="1848" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1848" vm="1847">
+      <c r="A1848" s="1" vm="1847">
         <v>45644</v>
       </c>
       <c r="B1848">
@@ -43483,7 +43490,7 @@
       </c>
     </row>
     <row r="1849" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1849" vm="1848">
+      <c r="A1849" s="1" vm="1848">
         <v>45645</v>
       </c>
       <c r="B1849">
@@ -43491,7 +43498,7 @@
       </c>
     </row>
     <row r="1850" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1850" vm="1849">
+      <c r="A1850" s="1" vm="1849">
         <v>45646</v>
       </c>
       <c r="B1850">
@@ -43499,7 +43506,7 @@
       </c>
     </row>
     <row r="1851" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1851" vm="1850">
+      <c r="A1851" s="1" vm="1850">
         <v>45649</v>
       </c>
       <c r="B1851">
@@ -43507,7 +43514,7 @@
       </c>
     </row>
     <row r="1852" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1852" vm="1851">
+      <c r="A1852" s="1" vm="1851">
         <v>45650</v>
       </c>
       <c r="B1852">
@@ -43515,7 +43522,7 @@
       </c>
     </row>
     <row r="1853" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1853" vm="1852">
+      <c r="A1853" s="1" vm="1852">
         <v>45652</v>
       </c>
       <c r="B1853">
@@ -43523,7 +43530,7 @@
       </c>
     </row>
     <row r="1854" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1854" vm="1853">
+      <c r="A1854" s="1" vm="1853">
         <v>45653</v>
       </c>
       <c r="B1854">
@@ -43531,7 +43538,7 @@
       </c>
     </row>
     <row r="1855" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1855" vm="1854">
+      <c r="A1855" s="1" vm="1854">
         <v>45656</v>
       </c>
       <c r="B1855">
@@ -43539,7 +43546,7 @@
       </c>
     </row>
     <row r="1856" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1856" vm="1855">
+      <c r="A1856" s="1" vm="1855">
         <v>45657</v>
       </c>
       <c r="B1856">
@@ -43547,7 +43554,7 @@
       </c>
     </row>
     <row r="1857" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1857" vm="1856">
+      <c r="A1857" s="1" vm="1856">
         <v>45659</v>
       </c>
       <c r="B1857">
@@ -43555,7 +43562,7 @@
       </c>
     </row>
     <row r="1858" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1858" vm="1857">
+      <c r="A1858" s="1" vm="1857">
         <v>45660</v>
       </c>
       <c r="B1858">
@@ -43563,7 +43570,7 @@
       </c>
     </row>
     <row r="1859" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1859" vm="1858">
+      <c r="A1859" s="1" vm="1858">
         <v>45663</v>
       </c>
       <c r="B1859">
@@ -43571,7 +43578,7 @@
       </c>
     </row>
     <row r="1860" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1860" vm="1859">
+      <c r="A1860" s="1" vm="1859">
         <v>45664</v>
       </c>
       <c r="B1860">
@@ -43579,7 +43586,7 @@
       </c>
     </row>
     <row r="1861" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1861" vm="1860">
+      <c r="A1861" s="1" vm="1860">
         <v>45665</v>
       </c>
       <c r="B1861">
@@ -43587,7 +43594,7 @@
       </c>
     </row>
     <row r="1862" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1862" vm="1861">
+      <c r="A1862" s="1" vm="1861">
         <v>45666</v>
       </c>
       <c r="B1862">
@@ -43595,7 +43602,7 @@
       </c>
     </row>
     <row r="1863" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1863" vm="1862">
+      <c r="A1863" s="1" vm="1862">
         <v>45667</v>
       </c>
       <c r="B1863">
@@ -43603,7 +43610,7 @@
       </c>
     </row>
     <row r="1864" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1864" vm="1863">
+      <c r="A1864" s="1" vm="1863">
         <v>45670</v>
       </c>
       <c r="B1864">
@@ -43611,7 +43618,7 @@
       </c>
     </row>
     <row r="1865" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1865" vm="1864">
+      <c r="A1865" s="1" vm="1864">
         <v>45671</v>
       </c>
       <c r="B1865">
@@ -43619,7 +43626,7 @@
       </c>
     </row>
     <row r="1866" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1866" vm="1865">
+      <c r="A1866" s="1" vm="1865">
         <v>45672</v>
       </c>
       <c r="B1866">
@@ -43627,7 +43634,7 @@
       </c>
     </row>
     <row r="1867" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1867" vm="1866">
+      <c r="A1867" s="1" vm="1866">
         <v>45673</v>
       </c>
       <c r="B1867">
@@ -43635,7 +43642,7 @@
       </c>
     </row>
     <row r="1868" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1868" vm="1867">
+      <c r="A1868" s="1" vm="1867">
         <v>45674</v>
       </c>
       <c r="B1868">
@@ -43643,7 +43650,7 @@
       </c>
     </row>
     <row r="1869" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1869" vm="1868">
+      <c r="A1869" s="1" vm="1868">
         <v>45677</v>
       </c>
       <c r="B1869">
@@ -43651,7 +43658,7 @@
       </c>
     </row>
     <row r="1870" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1870" vm="1869">
+      <c r="A1870" s="1" vm="1869">
         <v>45678</v>
       </c>
       <c r="B1870">
@@ -43659,7 +43666,7 @@
       </c>
     </row>
     <row r="1871" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1871" vm="1870">
+      <c r="A1871" s="1" vm="1870">
         <v>45679</v>
       </c>
       <c r="B1871">
@@ -43667,7 +43674,7 @@
       </c>
     </row>
     <row r="1872" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1872" vm="1871">
+      <c r="A1872" s="1" vm="1871">
         <v>45680</v>
       </c>
       <c r="B1872">
@@ -43675,7 +43682,7 @@
       </c>
     </row>
     <row r="1873" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1873" vm="1872">
+      <c r="A1873" s="1" vm="1872">
         <v>45681</v>
       </c>
       <c r="B1873">
@@ -43683,7 +43690,7 @@
       </c>
     </row>
     <row r="1874" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1874" vm="1873">
+      <c r="A1874" s="1" vm="1873">
         <v>45684</v>
       </c>
       <c r="B1874">
@@ -43691,7 +43698,7 @@
       </c>
     </row>
     <row r="1875" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1875" vm="1874">
+      <c r="A1875" s="1" vm="1874">
         <v>45685</v>
       </c>
       <c r="B1875">
@@ -43699,7 +43706,7 @@
       </c>
     </row>
     <row r="1876" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1876" vm="1875">
+      <c r="A1876" s="1" vm="1875">
         <v>45686</v>
       </c>
       <c r="B1876">
@@ -43707,7 +43714,7 @@
       </c>
     </row>
     <row r="1877" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1877" vm="1876">
+      <c r="A1877" s="1" vm="1876">
         <v>45687</v>
       </c>
       <c r="B1877">
@@ -43715,7 +43722,7 @@
       </c>
     </row>
     <row r="1878" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1878" vm="1877">
+      <c r="A1878" s="1" vm="1877">
         <v>45688</v>
       </c>
       <c r="B1878">
@@ -43723,7 +43730,7 @@
       </c>
     </row>
     <row r="1879" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1879" vm="1878">
+      <c r="A1879" s="1" vm="1878">
         <v>45692</v>
       </c>
       <c r="B1879">
@@ -43731,7 +43738,7 @@
       </c>
     </row>
     <row r="1880" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1880" vm="1879">
+      <c r="A1880" s="1" vm="1879">
         <v>45693</v>
       </c>
       <c r="B1880">
@@ -43739,7 +43746,7 @@
       </c>
     </row>
     <row r="1881" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1881" vm="1880">
+      <c r="A1881" s="1" vm="1880">
         <v>45694</v>
       </c>
       <c r="B1881">
@@ -43747,7 +43754,7 @@
       </c>
     </row>
     <row r="1882" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1882" vm="1881">
+      <c r="A1882" s="1" vm="1881">
         <v>45695</v>
       </c>
       <c r="B1882">
@@ -43755,7 +43762,7 @@
       </c>
     </row>
     <row r="1883" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1883" vm="1882">
+      <c r="A1883" s="1" vm="1882">
         <v>45698</v>
       </c>
       <c r="B1883">
@@ -43763,7 +43770,7 @@
       </c>
     </row>
     <row r="1884" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1884" vm="1883">
+      <c r="A1884" s="1" vm="1883">
         <v>45699</v>
       </c>
       <c r="B1884">
@@ -43771,7 +43778,7 @@
       </c>
     </row>
     <row r="1885" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1885" vm="1884">
+      <c r="A1885" s="1" vm="1884">
         <v>45700</v>
       </c>
       <c r="B1885">
@@ -43779,7 +43786,7 @@
       </c>
     </row>
     <row r="1886" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1886" vm="1885">
+      <c r="A1886" s="1" vm="1885">
         <v>45701</v>
       </c>
       <c r="B1886">
@@ -43787,7 +43794,7 @@
       </c>
     </row>
     <row r="1887" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1887" vm="1886">
+      <c r="A1887" s="1" vm="1886">
         <v>45702</v>
       </c>
       <c r="B1887">
@@ -43795,7 +43802,7 @@
       </c>
     </row>
     <row r="1888" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1888" vm="1887">
+      <c r="A1888" s="1" vm="1887">
         <v>45705</v>
       </c>
       <c r="B1888">
@@ -43803,7 +43810,7 @@
       </c>
     </row>
     <row r="1889" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1889" vm="1888">
+      <c r="A1889" s="1" vm="1888">
         <v>45706</v>
       </c>
       <c r="B1889">
@@ -43811,7 +43818,7 @@
       </c>
     </row>
     <row r="1890" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1890" vm="1889">
+      <c r="A1890" s="1" vm="1889">
         <v>45707</v>
       </c>
       <c r="B1890">
@@ -43819,7 +43826,7 @@
       </c>
     </row>
     <row r="1891" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1891" vm="1890">
+      <c r="A1891" s="1" vm="1890">
         <v>45708</v>
       </c>
       <c r="B1891">
@@ -43827,7 +43834,7 @@
       </c>
     </row>
     <row r="1892" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1892" vm="1891">
+      <c r="A1892" s="1" vm="1891">
         <v>45709</v>
       </c>
       <c r="B1892">
@@ -43835,7 +43842,7 @@
       </c>
     </row>
     <row r="1893" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1893" vm="1892">
+      <c r="A1893" s="1" vm="1892">
         <v>45712</v>
       </c>
       <c r="B1893">
@@ -43843,7 +43850,7 @@
       </c>
     </row>
     <row r="1894" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1894" vm="1893">
+      <c r="A1894" s="1" vm="1893">
         <v>45713</v>
       </c>
       <c r="B1894">
@@ -43851,7 +43858,7 @@
       </c>
     </row>
     <row r="1895" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1895" vm="1894">
+      <c r="A1895" s="1" vm="1894">
         <v>45714</v>
       </c>
       <c r="B1895">
@@ -43859,7 +43866,7 @@
       </c>
     </row>
     <row r="1896" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1896" vm="1895">
+      <c r="A1896" s="1" vm="1895">
         <v>45715</v>
       </c>
       <c r="B1896">
@@ -43867,7 +43874,7 @@
       </c>
     </row>
     <row r="1897" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1897" vm="1896">
+      <c r="A1897" s="1" vm="1896">
         <v>45716</v>
       </c>
       <c r="B1897">
@@ -43875,7 +43882,7 @@
       </c>
     </row>
     <row r="1898" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1898" vm="1897">
+      <c r="A1898" s="1" vm="1897">
         <v>45719</v>
       </c>
       <c r="B1898">
@@ -43883,7 +43890,7 @@
       </c>
     </row>
     <row r="1899" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1899" vm="1898">
+      <c r="A1899" s="1" vm="1898">
         <v>45720</v>
       </c>
       <c r="B1899">
@@ -43891,7 +43898,7 @@
       </c>
     </row>
     <row r="1900" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1900" vm="1899">
+      <c r="A1900" s="1" vm="1899">
         <v>45721</v>
       </c>
       <c r="B1900">
@@ -43899,7 +43906,7 @@
       </c>
     </row>
     <row r="1901" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1901" vm="1900">
+      <c r="A1901" s="1" vm="1900">
         <v>45722</v>
       </c>
       <c r="B1901">
@@ -43907,7 +43914,7 @@
       </c>
     </row>
     <row r="1902" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1902" vm="1901">
+      <c r="A1902" s="1" vm="1901">
         <v>45723</v>
       </c>
       <c r="B1902">
@@ -43915,7 +43922,7 @@
       </c>
     </row>
     <row r="1903" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1903" vm="1902">
+      <c r="A1903" s="1" vm="1902">
         <v>45726</v>
       </c>
       <c r="B1903">
@@ -43923,7 +43930,7 @@
       </c>
     </row>
     <row r="1904" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1904" vm="1903">
+      <c r="A1904" s="1" vm="1903">
         <v>45727</v>
       </c>
       <c r="B1904">
@@ -43931,7 +43938,7 @@
       </c>
     </row>
     <row r="1905" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1905" vm="1904">
+      <c r="A1905" s="1" vm="1904">
         <v>45728</v>
       </c>
       <c r="B1905">
@@ -43939,7 +43946,7 @@
       </c>
     </row>
     <row r="1906" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1906" vm="1905">
+      <c r="A1906" s="1" vm="1905">
         <v>45729</v>
       </c>
       <c r="B1906">
@@ -43947,7 +43954,7 @@
       </c>
     </row>
     <row r="1907" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1907" vm="1906">
+      <c r="A1907" s="1" vm="1906">
         <v>45730</v>
       </c>
       <c r="B1907">
@@ -43955,7 +43962,7 @@
       </c>
     </row>
     <row r="1908" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1908" vm="1907">
+      <c r="A1908" s="1" vm="1907">
         <v>45734</v>
       </c>
       <c r="B1908">
@@ -43963,7 +43970,7 @@
       </c>
     </row>
     <row r="1909" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1909" vm="1908">
+      <c r="A1909" s="1" vm="1908">
         <v>45735</v>
       </c>
       <c r="B1909">
@@ -43971,7 +43978,7 @@
       </c>
     </row>
     <row r="1910" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1910" vm="1909">
+      <c r="A1910" s="1" vm="1909">
         <v>45736</v>
       </c>
       <c r="B1910">
@@ -43979,7 +43986,7 @@
       </c>
     </row>
     <row r="1911" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1911" vm="1910">
+      <c r="A1911" s="1" vm="1910">
         <v>45737</v>
       </c>
       <c r="B1911">
@@ -43987,7 +43994,7 @@
       </c>
     </row>
     <row r="1912" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1912" vm="1911">
+      <c r="A1912" s="1" vm="1911">
         <v>45740</v>
       </c>
       <c r="B1912">
@@ -43995,7 +44002,7 @@
       </c>
     </row>
     <row r="1913" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1913" vm="1912">
+      <c r="A1913" s="1" vm="1912">
         <v>45741</v>
       </c>
       <c r="B1913">
@@ -44003,7 +44010,7 @@
       </c>
     </row>
     <row r="1914" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1914" vm="1913">
+      <c r="A1914" s="1" vm="1913">
         <v>45742</v>
       </c>
       <c r="B1914">
@@ -44011,7 +44018,7 @@
       </c>
     </row>
     <row r="1915" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1915" vm="1914">
+      <c r="A1915" s="1" vm="1914">
         <v>45743</v>
       </c>
       <c r="B1915">
@@ -44019,7 +44026,7 @@
       </c>
     </row>
     <row r="1916" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1916" vm="1915">
+      <c r="A1916" s="1" vm="1915">
         <v>45744</v>
       </c>
       <c r="B1916">
@@ -44027,7 +44034,7 @@
       </c>
     </row>
     <row r="1917" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1917" vm="1916">
+      <c r="A1917" s="1" vm="1916">
         <v>45747</v>
       </c>
       <c r="B1917">
@@ -44035,7 +44042,7 @@
       </c>
     </row>
     <row r="1918" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1918" vm="1917">
+      <c r="A1918" s="1" vm="1917">
         <v>45748</v>
       </c>
       <c r="B1918">
@@ -44043,7 +44050,7 @@
       </c>
     </row>
     <row r="1919" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1919" vm="1918">
+      <c r="A1919" s="1" vm="1918">
         <v>45749</v>
       </c>
       <c r="B1919">
@@ -44051,7 +44058,7 @@
       </c>
     </row>
     <row r="1920" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1920" vm="1919">
+      <c r="A1920" s="1" vm="1919">
         <v>45750</v>
       </c>
       <c r="B1920">
@@ -44059,7 +44066,7 @@
       </c>
     </row>
     <row r="1921" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1921" vm="1920">
+      <c r="A1921" s="1" vm="1920">
         <v>45751</v>
       </c>
       <c r="B1921">
@@ -44067,7 +44074,7 @@
       </c>
     </row>
     <row r="1922" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1922" vm="1921">
+      <c r="A1922" s="1" vm="1921">
         <v>45754</v>
       </c>
       <c r="B1922">
@@ -44075,7 +44082,7 @@
       </c>
     </row>
     <row r="1923" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1923" vm="1922">
+      <c r="A1923" s="1" vm="1922">
         <v>45755</v>
       </c>
       <c r="B1923">
@@ -44083,7 +44090,7 @@
       </c>
     </row>
     <row r="1924" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1924" vm="1923">
+      <c r="A1924" s="1" vm="1923">
         <v>45756</v>
       </c>
       <c r="B1924">
@@ -44091,7 +44098,7 @@
       </c>
     </row>
     <row r="1925" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1925" vm="1924">
+      <c r="A1925" s="1" vm="1924">
         <v>45757</v>
       </c>
       <c r="B1925">
@@ -44099,7 +44106,7 @@
       </c>
     </row>
     <row r="1926" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1926" vm="1925">
+      <c r="A1926" s="1" vm="1925">
         <v>45758</v>
       </c>
       <c r="B1926">
@@ -44107,7 +44114,7 @@
       </c>
     </row>
     <row r="1927" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1927" vm="1926">
+      <c r="A1927" s="1" vm="1926">
         <v>45761</v>
       </c>
       <c r="B1927">
@@ -44115,7 +44122,7 @@
       </c>
     </row>
     <row r="1928" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1928" vm="1927">
+      <c r="A1928" s="1" vm="1927">
         <v>45762</v>
       </c>
       <c r="B1928">
@@ -44123,7 +44130,7 @@
       </c>
     </row>
     <row r="1929" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1929" vm="1928">
+      <c r="A1929" s="1" vm="1928">
         <v>45763</v>
       </c>
       <c r="B1929">
@@ -44131,7 +44138,7 @@
       </c>
     </row>
     <row r="1930" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1930" vm="1929">
+      <c r="A1930" s="1" vm="1929">
         <v>45768</v>
       </c>
       <c r="B1930">
@@ -44139,7 +44146,7 @@
       </c>
     </row>
     <row r="1931" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1931" vm="1930">
+      <c r="A1931" s="1" vm="1930">
         <v>45769</v>
       </c>
       <c r="B1931">
@@ -44147,7 +44154,7 @@
       </c>
     </row>
     <row r="1932" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1932" vm="1931">
+      <c r="A1932" s="1" vm="1931">
         <v>45770</v>
       </c>
       <c r="B1932">
@@ -44155,7 +44162,7 @@
       </c>
     </row>
     <row r="1933" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1933" vm="1932">
+      <c r="A1933" s="1" vm="1932">
         <v>45771</v>
       </c>
       <c r="B1933">
@@ -44163,7 +44170,7 @@
       </c>
     </row>
     <row r="1934" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1934" vm="1933">
+      <c r="A1934" s="1" vm="1933">
         <v>45772</v>
       </c>
       <c r="B1934">
@@ -44171,7 +44178,7 @@
       </c>
     </row>
     <row r="1935" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1935" vm="1934">
+      <c r="A1935" s="1" vm="1934">
         <v>45775</v>
       </c>
       <c r="B1935">
@@ -44179,7 +44186,7 @@
       </c>
     </row>
     <row r="1936" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1936" vm="1935">
+      <c r="A1936" s="1" vm="1935">
         <v>45776</v>
       </c>
       <c r="B1936">
@@ -44187,7 +44194,7 @@
       </c>
     </row>
     <row r="1937" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1937" vm="1936">
+      <c r="A1937" s="1" vm="1936">
         <v>45777</v>
       </c>
       <c r="B1937">
@@ -44195,7 +44202,7 @@
       </c>
     </row>
     <row r="1938" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1938" vm="1937">
+      <c r="A1938" s="1" vm="1937">
         <v>45779</v>
       </c>
       <c r="B1938">
@@ -44203,7 +44210,7 @@
       </c>
     </row>
     <row r="1939" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1939" vm="1938">
+      <c r="A1939" s="1" vm="1938">
         <v>45782</v>
       </c>
       <c r="B1939">
@@ -44211,7 +44218,7 @@
       </c>
     </row>
     <row r="1940" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1940" vm="1939">
+      <c r="A1940" s="1" vm="1939">
         <v>45783</v>
       </c>
       <c r="B1940">
@@ -44219,7 +44226,7 @@
       </c>
     </row>
     <row r="1941" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1941" vm="1940">
+      <c r="A1941" s="1" vm="1940">
         <v>45784</v>
       </c>
       <c r="B1941">
@@ -44227,7 +44234,7 @@
       </c>
     </row>
     <row r="1942" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1942" vm="1941">
+      <c r="A1942" s="1" vm="1941">
         <v>45785</v>
       </c>
       <c r="B1942">
@@ -44235,7 +44242,7 @@
       </c>
     </row>
     <row r="1943" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1943" vm="1942">
+      <c r="A1943" s="1" vm="1942">
         <v>45786</v>
       </c>
       <c r="B1943">
@@ -44243,7 +44250,7 @@
       </c>
     </row>
     <row r="1944" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1944" vm="1943">
+      <c r="A1944" s="1" vm="1943">
         <v>45789</v>
       </c>
       <c r="B1944">
@@ -44251,7 +44258,7 @@
       </c>
     </row>
     <row r="1945" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1945" vm="1944">
+      <c r="A1945" s="1" vm="1944">
         <v>45790</v>
       </c>
       <c r="B1945">
@@ -44259,7 +44266,7 @@
       </c>
     </row>
     <row r="1946" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1946" vm="1945">
+      <c r="A1946" s="1" vm="1945">
         <v>45791</v>
       </c>
       <c r="B1946">
@@ -44267,7 +44274,7 @@
       </c>
     </row>
     <row r="1947" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1947" vm="1946">
+      <c r="A1947" s="1" vm="1946">
         <v>45792</v>
       </c>
       <c r="B1947">
@@ -44275,7 +44282,7 @@
       </c>
     </row>
     <row r="1948" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1948" vm="1947">
+      <c r="A1948" s="1" vm="1947">
         <v>45793</v>
       </c>
       <c r="B1948">
@@ -44283,7 +44290,7 @@
       </c>
     </row>
     <row r="1949" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1949" vm="1948">
+      <c r="A1949" s="1" vm="1948">
         <v>45796</v>
       </c>
       <c r="B1949">
@@ -44291,7 +44298,7 @@
       </c>
     </row>
     <row r="1950" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1950" vm="1949">
+      <c r="A1950" s="1" vm="1949">
         <v>45797</v>
       </c>
       <c r="B1950">
@@ -44299,7 +44306,7 @@
       </c>
     </row>
     <row r="1951" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1951" vm="1950">
+      <c r="A1951" s="1" vm="1950">
         <v>45798</v>
       </c>
       <c r="B1951">
@@ -44307,7 +44314,7 @@
       </c>
     </row>
     <row r="1952" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1952" vm="1951">
+      <c r="A1952" s="1" vm="1951">
         <v>45799</v>
       </c>
       <c r="B1952">
@@ -44315,7 +44322,7 @@
       </c>
     </row>
     <row r="1953" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1953" vm="1952">
+      <c r="A1953" s="1" vm="1952">
         <v>45800</v>
       </c>
       <c r="B1953">
@@ -44323,7 +44330,7 @@
       </c>
     </row>
     <row r="1954" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1954" vm="1953">
+      <c r="A1954" s="1" vm="1953">
         <v>45803</v>
       </c>
       <c r="B1954">
@@ -44331,7 +44338,7 @@
       </c>
     </row>
     <row r="1955" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1955" vm="1954">
+      <c r="A1955" s="1" vm="1954">
         <v>45804</v>
       </c>
       <c r="B1955">
@@ -44339,7 +44346,7 @@
       </c>
     </row>
     <row r="1956" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1956" vm="1955">
+      <c r="A1956" s="1" vm="1955">
         <v>45805</v>
       </c>
       <c r="B1956">
@@ -44347,7 +44354,7 @@
       </c>
     </row>
     <row r="1957" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1957" vm="1956">
+      <c r="A1957" s="1" vm="1956">
         <v>45806</v>
       </c>
       <c r="B1957">
@@ -44355,7 +44362,7 @@
       </c>
     </row>
     <row r="1958" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1958" vm="1957">
+      <c r="A1958" s="1" vm="1957">
         <v>45807</v>
       </c>
       <c r="B1958">
@@ -44363,7 +44370,7 @@
       </c>
     </row>
     <row r="1959" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1959" vm="1958">
+      <c r="A1959" s="1" vm="1958">
         <v>45810</v>
       </c>
       <c r="B1959">
@@ -44371,7 +44378,7 @@
       </c>
     </row>
     <row r="1960" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1960" vm="1959">
+      <c r="A1960" s="1" vm="1959">
         <v>45811</v>
       </c>
       <c r="B1960">
@@ -44379,7 +44386,7 @@
       </c>
     </row>
     <row r="1961" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1961" vm="1960">
+      <c r="A1961" s="1" vm="1960">
         <v>45812</v>
       </c>
       <c r="B1961">
@@ -44387,7 +44394,7 @@
       </c>
     </row>
     <row r="1962" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1962" vm="1961">
+      <c r="A1962" s="1" vm="1961">
         <v>45813</v>
       </c>
       <c r="B1962">
@@ -44395,7 +44402,7 @@
       </c>
     </row>
     <row r="1963" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1963" vm="1962">
+      <c r="A1963" s="1" vm="1962">
         <v>45814</v>
       </c>
       <c r="B1963">
@@ -44403,7 +44410,7 @@
       </c>
     </row>
     <row r="1964" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1964" vm="1963">
+      <c r="A1964" s="1" vm="1963">
         <v>45817</v>
       </c>
       <c r="B1964">
@@ -44411,7 +44418,7 @@
       </c>
     </row>
     <row r="1965" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1965" vm="1964">
+      <c r="A1965" s="1" vm="1964">
         <v>45818</v>
       </c>
       <c r="B1965">
@@ -44419,7 +44426,7 @@
       </c>
     </row>
     <row r="1966" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1966" vm="1965">
+      <c r="A1966" s="1" vm="1965">
         <v>45819</v>
       </c>
       <c r="B1966">
@@ -44427,7 +44434,7 @@
       </c>
     </row>
     <row r="1967" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1967" vm="1966">
+      <c r="A1967" s="1" vm="1966">
         <v>45820</v>
       </c>
       <c r="B1967">
@@ -44435,7 +44442,7 @@
       </c>
     </row>
     <row r="1968" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1968" vm="1967">
+      <c r="A1968" s="1" vm="1967">
         <v>45821</v>
       </c>
       <c r="B1968">
@@ -44443,7 +44450,7 @@
       </c>
     </row>
     <row r="1969" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1969" vm="1968">
+      <c r="A1969" s="1" vm="1968">
         <v>45824</v>
       </c>
       <c r="B1969">
@@ -44451,7 +44458,7 @@
       </c>
     </row>
     <row r="1970" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1970" vm="1969">
+      <c r="A1970" s="1" vm="1969">
         <v>45825</v>
       </c>
       <c r="B1970">
@@ -44459,7 +44466,7 @@
       </c>
     </row>
     <row r="1971" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1971" vm="1970">
+      <c r="A1971" s="1" vm="1970">
         <v>45826</v>
       </c>
       <c r="B1971">
@@ -44467,7 +44474,7 @@
       </c>
     </row>
     <row r="1972" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1972" vm="1971">
+      <c r="A1972" s="1" vm="1971">
         <v>45827</v>
       </c>
       <c r="B1972">
@@ -44475,7 +44482,7 @@
       </c>
     </row>
     <row r="1973" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1973" vm="1972">
+      <c r="A1973" s="1" vm="1972">
         <v>45828</v>
       </c>
       <c r="B1973">
@@ -44483,7 +44490,7 @@
       </c>
     </row>
     <row r="1974" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1974" vm="1973">
+      <c r="A1974" s="1" vm="1973">
         <v>45831</v>
       </c>
       <c r="B1974">
@@ -44491,7 +44498,7 @@
       </c>
     </row>
     <row r="1975" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1975" vm="1974">
+      <c r="A1975" s="1" vm="1974">
         <v>45832</v>
       </c>
       <c r="B1975">
@@ -44499,7 +44506,7 @@
       </c>
     </row>
     <row r="1976" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1976" vm="1975">
+      <c r="A1976" s="1" vm="1975">
         <v>45833</v>
       </c>
       <c r="B1976">
@@ -44507,7 +44514,7 @@
       </c>
     </row>
     <row r="1977" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1977" vm="1976">
+      <c r="A1977" s="1" vm="1976">
         <v>45834</v>
       </c>
       <c r="B1977">
@@ -44515,7 +44522,7 @@
       </c>
     </row>
     <row r="1978" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1978" vm="1977">
+      <c r="A1978" s="1" vm="1977">
         <v>45835</v>
       </c>
       <c r="B1978">
@@ -44523,7 +44530,7 @@
       </c>
     </row>
     <row r="1979" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1979" vm="1978">
+      <c r="A1979" s="1" vm="1978">
         <v>45838</v>
       </c>
       <c r="B1979">
@@ -44531,7 +44538,7 @@
       </c>
     </row>
     <row r="1980" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1980" vm="1979">
+      <c r="A1980" s="1" vm="1979">
         <v>45839</v>
       </c>
       <c r="B1980">
@@ -44539,7 +44546,7 @@
       </c>
     </row>
     <row r="1981" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1981" vm="1980">
+      <c r="A1981" s="1" vm="1980">
         <v>45840</v>
       </c>
       <c r="B1981">
@@ -44547,7 +44554,7 @@
       </c>
     </row>
     <row r="1982" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1982" vm="1981">
+      <c r="A1982" s="1" vm="1981">
         <v>45841</v>
       </c>
       <c r="B1982">
@@ -44555,7 +44562,7 @@
       </c>
     </row>
     <row r="1983" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1983" vm="1982">
+      <c r="A1983" s="1" vm="1982">
         <v>45842</v>
       </c>
       <c r="B1983">
@@ -44563,7 +44570,7 @@
       </c>
     </row>
     <row r="1984" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1984" vm="1983">
+      <c r="A1984" s="1" vm="1983">
         <v>45845</v>
       </c>
       <c r="B1984">
@@ -44571,7 +44578,7 @@
       </c>
     </row>
     <row r="1985" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1985" vm="1984">
+      <c r="A1985" s="1" vm="1984">
         <v>45846</v>
       </c>
       <c r="B1985">
@@ -44579,7 +44586,7 @@
       </c>
     </row>
     <row r="1986" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1986" vm="1985">
+      <c r="A1986" s="1" vm="1985">
         <v>45847</v>
       </c>
       <c r="B1986">
@@ -44587,7 +44594,7 @@
       </c>
     </row>
     <row r="1987" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1987" vm="1986">
+      <c r="A1987" s="1" vm="1986">
         <v>45848</v>
       </c>
       <c r="B1987">
@@ -44595,7 +44602,7 @@
       </c>
     </row>
     <row r="1988" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1988" vm="1987">
+      <c r="A1988" s="1" vm="1987">
         <v>45849</v>
       </c>
       <c r="B1988">
@@ -44603,7 +44610,7 @@
       </c>
     </row>
     <row r="1989" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1989" vm="1988">
+      <c r="A1989" s="1" vm="1988">
         <v>45852</v>
       </c>
       <c r="B1989">
@@ -44611,7 +44618,7 @@
       </c>
     </row>
     <row r="1990" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1990" vm="1989">
+      <c r="A1990" s="1" vm="1989">
         <v>45853</v>
       </c>
       <c r="B1990">
@@ -44619,7 +44626,7 @@
       </c>
     </row>
     <row r="1991" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1991" vm="1990">
+      <c r="A1991" s="1" vm="1990">
         <v>45854</v>
       </c>
       <c r="B1991">
@@ -44627,7 +44634,7 @@
       </c>
     </row>
     <row r="1992" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1992" vm="1991">
+      <c r="A1992" s="1" vm="1991">
         <v>45855</v>
       </c>
       <c r="B1992">
@@ -44635,7 +44642,7 @@
       </c>
     </row>
     <row r="1993" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1993" vm="1992">
+      <c r="A1993" s="1" vm="1992">
         <v>45856</v>
       </c>
       <c r="B1993">
@@ -44643,7 +44650,7 @@
       </c>
     </row>
     <row r="1994" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1994" vm="1993">
+      <c r="A1994" s="1" vm="1993">
         <v>45859</v>
       </c>
       <c r="B1994">
@@ -44651,7 +44658,7 @@
       </c>
     </row>
     <row r="1995" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1995" vm="1994">
+      <c r="A1995" s="1" vm="1994">
         <v>45860</v>
       </c>
       <c r="B1995">
@@ -44659,7 +44666,7 @@
       </c>
     </row>
     <row r="1996" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1996" vm="1995">
+      <c r="A1996" s="1" vm="1995">
         <v>45861</v>
       </c>
       <c r="B1996">
@@ -44667,7 +44674,7 @@
       </c>
     </row>
     <row r="1997" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1997" vm="1996">
+      <c r="A1997" s="1" vm="1996">
         <v>45862</v>
       </c>
       <c r="B1997">
@@ -44675,7 +44682,7 @@
       </c>
     </row>
     <row r="1998" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1998" vm="1997">
+      <c r="A1998" s="1" vm="1997">
         <v>45863</v>
       </c>
       <c r="B1998">
@@ -44683,7 +44690,7 @@
       </c>
     </row>
     <row r="1999" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1999" vm="1998">
+      <c r="A1999" s="1" vm="1998">
         <v>45866</v>
       </c>
       <c r="B1999">
@@ -44691,7 +44698,7 @@
       </c>
     </row>
     <row r="2000" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2000" vm="1999">
+      <c r="A2000" s="1" vm="1999">
         <v>45867</v>
       </c>
       <c r="B2000">
@@ -44699,7 +44706,7 @@
       </c>
     </row>
     <row r="2001" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2001" vm="2000">
+      <c r="A2001" s="1" vm="2000">
         <v>45868</v>
       </c>
       <c r="B2001">
@@ -44707,7 +44714,7 @@
       </c>
     </row>
     <row r="2002" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2002" vm="2001">
+      <c r="A2002" s="1" vm="2001">
         <v>45869</v>
       </c>
       <c r="B2002">
@@ -44715,7 +44722,7 @@
       </c>
     </row>
     <row r="2003" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2003" vm="2002">
+      <c r="A2003" s="1" vm="2002">
         <v>45870</v>
       </c>
       <c r="B2003">
@@ -44723,7 +44730,7 @@
       </c>
     </row>
     <row r="2004" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2004" vm="2003">
+      <c r="A2004" s="1" vm="2003">
         <v>45873</v>
       </c>
       <c r="B2004">
@@ -44731,7 +44738,7 @@
       </c>
     </row>
     <row r="2005" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2005" vm="2004">
+      <c r="A2005" s="1" vm="2004">
         <v>45874</v>
       </c>
       <c r="B2005">
@@ -44739,7 +44746,7 @@
       </c>
     </row>
     <row r="2006" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2006" vm="2005">
+      <c r="A2006" s="1" vm="2005">
         <v>45875</v>
       </c>
       <c r="B2006">
@@ -44747,7 +44754,7 @@
       </c>
     </row>
     <row r="2007" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2007" vm="2006">
+      <c r="A2007" s="1" vm="2006">
         <v>45876</v>
       </c>
       <c r="B2007">
@@ -44755,7 +44762,7 @@
       </c>
     </row>
     <row r="2008" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2008" vm="2007">
+      <c r="A2008" s="1" vm="2007">
         <v>45877</v>
       </c>
       <c r="B2008">
@@ -44763,7 +44770,7 @@
       </c>
     </row>
     <row r="2009" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2009" vm="2008">
+      <c r="A2009" s="1" vm="2008">
         <v>45880</v>
       </c>
       <c r="B2009">
@@ -44771,7 +44778,7 @@
       </c>
     </row>
     <row r="2010" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2010" vm="2009">
+      <c r="A2010" s="1" vm="2009">
         <v>45881</v>
       </c>
       <c r="B2010">
@@ -44779,7 +44786,7 @@
       </c>
     </row>
     <row r="2011" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2011" vm="2010">
+      <c r="A2011" s="1" vm="2010">
         <v>45882</v>
       </c>
       <c r="B2011">
@@ -44787,7 +44794,7 @@
       </c>
     </row>
     <row r="2012" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2012" vm="2011">
+      <c r="A2012" s="1" vm="2011">
         <v>45883</v>
       </c>
       <c r="B2012">
@@ -44795,7 +44802,7 @@
       </c>
     </row>
     <row r="2013" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2013" vm="2012">
+      <c r="A2013" s="1" vm="2012">
         <v>45884</v>
       </c>
       <c r="B2013">
@@ -44803,7 +44810,7 @@
       </c>
     </row>
     <row r="2014" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2014" vm="2013">
+      <c r="A2014" s="1" vm="2013">
         <v>45887</v>
       </c>
       <c r="B2014">
@@ -44811,6 +44818,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B2014" xr:uid="{E4241E70-4AC3-42B0-AB46-65347CED5807}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/COD/exercises/RetJPM.xlsx
+++ b/COD/exercises/RetJPM.xlsx
@@ -28701,7 +28701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4241E70-4AC3-42B0-AB46-65347CED5807}">
   <dimension ref="A1:B2014"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A2014"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
